--- a/LM2ReadandList/bin/Debug/NewListOut1.xlsx
+++ b/LM2ReadandList/bin/Debug/NewListOut1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AMSYS\Program\SystemProgram\LM2ReadandList_V2(20190918)\LM2ReadandList\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A00570\Desktop\GitHub\LM2ReadandList\LM2ReadandList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E090F7A3-56EC-4934-8FA2-8CD27BDD0090}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B19470-7613-48BF-B301-081BFCD1BD45}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-1836" windowWidth="23256" windowHeight="12576" tabRatio="957" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="957" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="8支嘜頭_1" sheetId="21" r:id="rId1"/>
@@ -52,7 +52,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -123,6 +123,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -362,6 +369,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -386,15 +405,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -431,17 +441,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -835,10 +842,10 @@
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:C10"/>
+      <selection activeCell="G1" sqref="G1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="8" width="13.109375" style="1" customWidth="1"/>
     <col min="9" max="10" width="28.6640625" style="1" customWidth="1"/>
@@ -847,182 +854,177 @@
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="39.9" customHeight="1" thickBot="1">
+    <row r="1" spans="1:15" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
       <c r="B1" s="6"/>
       <c r="C1" s="3"/>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="24"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="40"/>
       <c r="K1" s="9"/>
     </row>
-    <row r="2" spans="1:15" ht="39.9" customHeight="1" thickBot="1">
+    <row r="2" spans="1:15" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
       <c r="B2" s="7"/>
       <c r="C2" s="5"/>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="26"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="27"/>
       <c r="K2" s="9"/>
       <c r="M2" s="10"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
     </row>
-    <row r="3" spans="1:15" ht="39.9" customHeight="1" thickBot="1">
+    <row r="3" spans="1:15" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="7"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="26"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="27"/>
       <c r="K3" s="9"/>
       <c r="M3" s="10"/>
       <c r="N3" s="8"/>
       <c r="O3" s="9"/>
     </row>
-    <row r="4" spans="1:15" ht="39.9" customHeight="1">
+    <row r="4" spans="1:15" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="7"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="30"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="31"/>
       <c r="M4" s="8"/>
       <c r="N4" s="10"/>
       <c r="O4" s="9"/>
     </row>
-    <row r="5" spans="1:15" ht="39.9" customHeight="1">
-      <c r="A5" s="14" t="s">
+    <row r="5" spans="1:15" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
       <c r="O5" s="9"/>
     </row>
-    <row r="6" spans="1:15" ht="56.1" customHeight="1">
-      <c r="A6" s="31"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="33"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
+    <row r="6" spans="1:15" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="32"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="34"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
       <c r="O6" s="9"/>
     </row>
-    <row r="7" spans="1:15" ht="56.1" customHeight="1">
-      <c r="A7" s="34"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="36"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
+    <row r="7" spans="1:15" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="35"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="37"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
       <c r="O7" s="9"/>
     </row>
-    <row r="8" spans="1:15" ht="56.1" customHeight="1">
-      <c r="A8" s="34"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="36"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
+    <row r="8" spans="1:15" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="35"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="37"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
       <c r="O8" s="9"/>
     </row>
-    <row r="9" spans="1:15" ht="56.1" customHeight="1">
-      <c r="A9" s="34"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="36"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
+    <row r="9" spans="1:15" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="35"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="37"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
       <c r="O9" s="9"/>
     </row>
-    <row r="10" spans="1:15" ht="42" customHeight="1">
+    <row r="10" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="40"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="17"/>
       <c r="J10" s="12"/>
       <c r="M10" s="11"/>
       <c r="N10" s="10"/>
       <c r="O10" s="9"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="L13" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="M5:N9"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="D4:F4"/>
@@ -1031,6 +1033,11 @@
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="G3:J3"/>
     <mergeCell ref="G4:J4"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="M5:N9"/>
     <mergeCell ref="A6:J9"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
